--- a/output/1Y_P2_KFSDIV.xlsx
+++ b/output/1Y_P2_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>7.7888</v>
       </c>
       <c r="C2" s="1">
-        <v>7.7888</v>
+        <v>7.7732</v>
       </c>
       <c r="D2" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1283.8948</v>
+        <v>1281.3285</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E3" s="1">
-        <v>1283.8948</v>
+        <v>1281.3285</v>
       </c>
       <c r="F3" s="1">
-        <v>1212.974</v>
+        <v>1210.5512</v>
       </c>
       <c r="H3" s="1">
-        <v>10584.6857</v>
+        <v>10542.3863</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10584.6857</v>
+        <v>10542.3863</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0585</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>8.9413</v>
       </c>
       <c r="C4" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2496.8688</v>
+        <v>2491.8796</v>
       </c>
       <c r="F4" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="H4" s="1">
-        <v>22325.2529</v>
+        <v>22236.0388</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>22325.2529</v>
+        <v>22236.0388</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>8.01</v>
+        <v>8.0261</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.08459999999999999</v>
+        <v>0.0824</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>8.9801</v>
       </c>
       <c r="C5" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D5" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>3615.2744</v>
+        <v>3608.0507</v>
       </c>
       <c r="F5" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="H5" s="1">
-        <v>32465.5256</v>
+        <v>32335.7115</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32465.5256</v>
+        <v>32335.7115</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>8.2981</v>
+        <v>8.3147</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0043</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>8.6477</v>
       </c>
       <c r="C6" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D6" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>4728.8477</v>
+        <v>4719.3965</v>
       </c>
       <c r="F6" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="H6" s="1">
-        <v>40893.6566</v>
+        <v>40730.2792</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40893.6566</v>
+        <v>40730.2792</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>8.4587</v>
+        <v>8.4757</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1626.8735</v>
+        <v>1623.6228</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8373.1265</v>
+        <v>-8376.377200000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.037</v>
+        <v>-0.0379</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>5885.2246</v>
+        <v>5873.4646</v>
       </c>
       <c r="F7" s="1">
-        <v>1069.3403</v>
+        <v>1067.1505</v>
       </c>
       <c r="H7" s="1">
-        <v>56315.1255</v>
+        <v>56090.4118</v>
       </c>
       <c r="I7" s="1">
-        <v>1626.8735</v>
+        <v>1623.6228</v>
       </c>
       <c r="J7" s="1">
-        <v>57941.999</v>
+        <v>57714.0346</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>8.495900000000001</v>
+        <v>8.5129</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10232.4105</v>
+        <v>-10231.9461</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1385</v>
+        <v>0.1377</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E8" s="1">
-        <v>6954.5649</v>
+        <v>6940.6151</v>
       </c>
       <c r="F8" s="1">
-        <v>1085.1603</v>
+        <v>1082.9404</v>
       </c>
       <c r="H8" s="1">
-        <v>65577.37420000001</v>
+        <v>65314.6583</v>
       </c>
       <c r="I8" s="1">
-        <v>1394.463</v>
+        <v>1391.6767</v>
       </c>
       <c r="J8" s="1">
-        <v>66971.83719999999</v>
+        <v>66706.33500000001</v>
       </c>
       <c r="K8" s="1">
-        <v>60232.4105</v>
+        <v>60231.9461</v>
       </c>
       <c r="L8" s="1">
-        <v>8.6608</v>
+        <v>8.6782</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10232.4105</v>
+        <v>-10231.9461</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0143</v>
+        <v>-0.0149</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D9" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E9" s="1">
-        <v>8039.7252</v>
+        <v>8023.5555</v>
       </c>
       <c r="F9" s="1">
-        <v>1065.4322</v>
+        <v>1063.2471</v>
       </c>
       <c r="H9" s="1">
-        <v>77212.7167</v>
+        <v>76904.175</v>
       </c>
       <c r="I9" s="1">
-        <v>1162.0525</v>
+        <v>1159.7306</v>
       </c>
       <c r="J9" s="1">
-        <v>78374.7692</v>
+        <v>78063.9056</v>
       </c>
       <c r="K9" s="1">
-        <v>70464.821</v>
+        <v>70463.8922</v>
       </c>
       <c r="L9" s="1">
-        <v>8.7646</v>
+        <v>8.7821</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10232.4105</v>
+        <v>-10231.9461</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0182</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.3595</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E10" s="1">
-        <v>9105.157300000001</v>
+        <v>9086.8027</v>
       </c>
       <c r="F10" s="1">
-        <v>987.7320999999999</v>
+        <v>985.7080999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>94324.87760000001</v>
+        <v>93946.63529999999</v>
       </c>
       <c r="I10" s="1">
-        <v>929.6420000000001</v>
+        <v>927.7845</v>
       </c>
       <c r="J10" s="1">
-        <v>95254.51949999999</v>
+        <v>94874.4198</v>
       </c>
       <c r="K10" s="1">
-        <v>80697.23149999999</v>
+        <v>80695.83839999999</v>
       </c>
       <c r="L10" s="1">
-        <v>8.8628</v>
+        <v>8.880599999999999</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10232.4105</v>
+        <v>-10231.9461</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.07779999999999999</v>
+        <v>0.07729999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.0875</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E11" s="1">
-        <v>10092.8894</v>
+        <v>10072.5108</v>
       </c>
       <c r="F11" s="1">
-        <v>1014.3654</v>
+        <v>1012.2922</v>
       </c>
       <c r="H11" s="1">
-        <v>101812.0221</v>
+        <v>101402.9879</v>
       </c>
       <c r="I11" s="1">
-        <v>697.2315</v>
+        <v>695.8384</v>
       </c>
       <c r="J11" s="1">
-        <v>102509.2536</v>
+        <v>102098.8263</v>
       </c>
       <c r="K11" s="1">
-        <v>90929.64200000001</v>
+        <v>90927.78449999999</v>
       </c>
       <c r="L11" s="1">
-        <v>9.0093</v>
+        <v>9.0273</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10232.4105</v>
+        <v>-10231.9461</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0261</v>
+        <v>-0.0265</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>10.1692</v>
       </c>
       <c r="C12" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E12" s="1">
-        <v>11107.2548</v>
+        <v>11084.803</v>
       </c>
       <c r="F12" s="1">
-        <v>1006.2159</v>
+        <v>1004.1558</v>
       </c>
       <c r="H12" s="1">
-        <v>112951.8953</v>
+        <v>112498.5573</v>
       </c>
       <c r="I12" s="1">
-        <v>464.821</v>
+        <v>463.8922</v>
       </c>
       <c r="J12" s="1">
-        <v>113416.7163</v>
+        <v>112962.4496</v>
       </c>
       <c r="K12" s="1">
-        <v>101162.0525</v>
+        <v>101159.7306</v>
       </c>
       <c r="L12" s="1">
-        <v>9.107699999999999</v>
+        <v>9.125999999999999</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2725.0801</v>
+        <v>2719.5779</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7507.3304</v>
+        <v>-7512.3682</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0081</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>11.0872</v>
       </c>
       <c r="C13" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D13" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E13" s="1">
-        <v>12113.4707</v>
+        <v>12088.9588</v>
       </c>
       <c r="F13" s="1">
-        <v>1168.6892</v>
+        <v>1165.8167</v>
       </c>
       <c r="H13" s="1">
-        <v>134304.4719</v>
+        <v>133764.3295</v>
       </c>
       <c r="I13" s="1">
-        <v>2957.4906</v>
+        <v>2951.524</v>
       </c>
       <c r="J13" s="1">
-        <v>137261.9626</v>
+        <v>136715.8535</v>
       </c>
       <c r="K13" s="1">
-        <v>111394.463</v>
+        <v>111391.6767</v>
       </c>
       <c r="L13" s="1">
-        <v>9.1959</v>
+        <v>9.2143</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12957.4906</v>
+        <v>-12951.524</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1122</v>
+        <v>0.1119</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>11.0976</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E14" s="1">
-        <v>13282.1598</v>
+        <v>13254.7755</v>
       </c>
       <c r="F14" s="1">
-        <v>-13282.1598</v>
+        <v>-13254.7755</v>
       </c>
       <c r="H14" s="1">
-        <v>147400.097</v>
+        <v>146801.9409</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>147400.097</v>
+        <v>146801.9409</v>
       </c>
       <c r="K14" s="1">
-        <v>124351.9536</v>
+        <v>124343.2007</v>
       </c>
       <c r="L14" s="1">
-        <v>9.362299999999999</v>
+        <v>9.381</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>147400.097</v>
+        <v>146801.9409</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0009</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>7.7888</v>
       </c>
       <c r="C2" s="1">
-        <v>7.7888</v>
+        <v>7.7732</v>
       </c>
       <c r="D2" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1283.8948</v>
+        <v>1281.3285</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E3" s="1">
-        <v>1283.8948</v>
+        <v>1281.3285</v>
       </c>
       <c r="F3" s="1">
-        <v>1142.0531</v>
+        <v>1149.4845</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10584.6857</v>
+        <v>10542.3863</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10584.6857</v>
+        <v>10542.3863</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9415.3143</v>
+        <v>-9495.5466</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0585</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>8.9413</v>
       </c>
       <c r="C4" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2425.9479</v>
+        <v>2430.813</v>
       </c>
       <c r="F4" s="1">
-        <v>929.2689</v>
+        <v>931.1343000000001</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21691.1283</v>
+        <v>21691.1166</v>
       </c>
       <c r="I4" s="1">
-        <v>584.6857</v>
+        <v>504.4534</v>
       </c>
       <c r="J4" s="1">
-        <v>22275.814</v>
+        <v>22195.57</v>
       </c>
       <c r="K4" s="1">
-        <v>19415.3143</v>
+        <v>19495.5466</v>
       </c>
       <c r="L4" s="1">
-        <v>8.0032</v>
+        <v>8.020200000000001</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8308.8717</v>
+        <v>-8342.218000000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0822</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>8.9801</v>
       </c>
       <c r="C5" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D5" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>3355.2168</v>
+        <v>3361.9472</v>
       </c>
       <c r="F5" s="1">
-        <v>1099.0766</v>
+        <v>1101.2924</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30130.1824</v>
+        <v>30130.1074</v>
       </c>
       <c r="I5" s="1">
-        <v>2275.814</v>
+        <v>2162.2353</v>
       </c>
       <c r="J5" s="1">
-        <v>32405.9964</v>
+        <v>32292.3427</v>
       </c>
       <c r="K5" s="1">
-        <v>27724.186</v>
+        <v>27837.7647</v>
       </c>
       <c r="L5" s="1">
-        <v>8.263</v>
+        <v>8.2803</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9869.8176</v>
+        <v>-9909.539199999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>8.6477</v>
       </c>
       <c r="C6" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D6" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>4454.2934</v>
+        <v>4463.2396</v>
       </c>
       <c r="F6" s="1">
-        <v>1327.5908</v>
+        <v>1330.2346</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38519.3929</v>
+        <v>38519.5434</v>
       </c>
       <c r="I6" s="1">
-        <v>2405.9964</v>
+        <v>2252.6962</v>
       </c>
       <c r="J6" s="1">
-        <v>40925.3893</v>
+        <v>40772.2396</v>
       </c>
       <c r="K6" s="1">
-        <v>37594.0036</v>
+        <v>37747.3038</v>
       </c>
       <c r="L6" s="1">
-        <v>8.4399</v>
+        <v>8.4574</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1509.8476</v>
+        <v>1512.8763</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9970.759599999999</v>
+        <v>-10013.6064</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0349</v>
+        <v>-0.0359</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>5781.8842</v>
+        <v>5793.4742</v>
       </c>
       <c r="F7" s="1">
-        <v>488.429</v>
+        <v>489.3799</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>55326.2717</v>
+        <v>55326.5202</v>
       </c>
       <c r="I7" s="1">
-        <v>2435.2369</v>
+        <v>2239.0897</v>
       </c>
       <c r="J7" s="1">
-        <v>57761.5086</v>
+        <v>57565.6099</v>
       </c>
       <c r="K7" s="1">
-        <v>49074.6107</v>
+        <v>49273.7865</v>
       </c>
       <c r="L7" s="1">
-        <v>8.4877</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-4673.7283</v>
+        <v>-4692.223</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1342</v>
+        <v>0.1338</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E8" s="1">
-        <v>6270.3132</v>
+        <v>6282.8541</v>
       </c>
       <c r="F8" s="1">
-        <v>1153.2768</v>
+        <v>1155.6455</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>59125.2913</v>
+        <v>59124.7984</v>
       </c>
       <c r="I8" s="1">
-        <v>7761.5086</v>
+        <v>7546.8667</v>
       </c>
       <c r="J8" s="1">
-        <v>66886.7999</v>
+        <v>66671.6651</v>
       </c>
       <c r="K8" s="1">
-        <v>53748.339</v>
+        <v>53966.0096</v>
       </c>
       <c r="L8" s="1">
-        <v>8.571899999999999</v>
+        <v>8.589399999999999</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10874.7087</v>
+        <v>-10918.885</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0129</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D9" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E9" s="1">
-        <v>7423.59</v>
+        <v>7438.4995</v>
       </c>
       <c r="F9" s="1">
-        <v>906.3592</v>
+        <v>908.0492</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>71295.41650000001</v>
+        <v>71296.53049999999</v>
       </c>
       <c r="I9" s="1">
-        <v>6886.7999</v>
+        <v>6627.9817</v>
       </c>
       <c r="J9" s="1">
-        <v>78182.2164</v>
+        <v>77924.5122</v>
       </c>
       <c r="K9" s="1">
-        <v>64623.0477</v>
+        <v>64884.8945</v>
       </c>
       <c r="L9" s="1">
-        <v>8.7051</v>
+        <v>8.722799999999999</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8704.674199999999</v>
+        <v>-8738.429400000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0168</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.3595</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E10" s="1">
-        <v>8329.9493</v>
+        <v>8346.548699999999</v>
       </c>
       <c r="F10" s="1">
-        <v>357.7287</v>
+        <v>358.5235</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>86294.1097</v>
+        <v>86293.2977</v>
       </c>
       <c r="I10" s="1">
-        <v>8182.1257</v>
+        <v>7889.5523</v>
       </c>
       <c r="J10" s="1">
-        <v>94476.23540000001</v>
+        <v>94182.85000000001</v>
       </c>
       <c r="K10" s="1">
-        <v>73327.7218</v>
+        <v>73623.32399999999</v>
       </c>
       <c r="L10" s="1">
-        <v>8.802899999999999</v>
+        <v>8.8208</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-3705.8903</v>
+        <v>-3721.581</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.07140000000000001</v>
+        <v>0.0712</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.0875</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E11" s="1">
-        <v>8687.678</v>
+        <v>8705.072200000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1225.581</v>
+        <v>1228.0777</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87636.9516</v>
+        <v>87636.5729</v>
       </c>
       <c r="I11" s="1">
-        <v>14476.2354</v>
+        <v>14167.9713</v>
       </c>
       <c r="J11" s="1">
-        <v>102113.187</v>
+        <v>101804.5442</v>
       </c>
       <c r="K11" s="1">
-        <v>77033.6122</v>
+        <v>77344.905</v>
       </c>
       <c r="L11" s="1">
-        <v>8.867000000000001</v>
+        <v>8.885</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12363.0484</v>
+        <v>-12413.0414</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0226</v>
+        <v>-0.0228</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>10.1692</v>
       </c>
       <c r="C12" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E12" s="1">
-        <v>9913.259</v>
+        <v>9933.1499</v>
       </c>
       <c r="F12" s="1">
-        <v>903.7178</v>
+        <v>905.4632</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>100809.9133</v>
+        <v>100810.545</v>
       </c>
       <c r="I12" s="1">
-        <v>12113.187</v>
+        <v>11754.9299</v>
       </c>
       <c r="J12" s="1">
-        <v>112923.1003</v>
+        <v>112565.4749</v>
       </c>
       <c r="K12" s="1">
-        <v>89396.6606</v>
+        <v>89757.9464</v>
       </c>
       <c r="L12" s="1">
-        <v>9.017899999999999</v>
+        <v>9.036199999999999</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2345.6731</v>
+        <v>2350.3695</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6844.4137</v>
+        <v>-6875.9378</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0072</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>11.0872</v>
       </c>
       <c r="C13" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D13" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E13" s="1">
-        <v>10816.9768</v>
+        <v>10838.6131</v>
       </c>
       <c r="F13" s="1">
-        <v>6.315</v>
+        <v>6.3937</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>119929.9847</v>
+        <v>119929.2534</v>
       </c>
       <c r="I13" s="1">
-        <v>15268.7733</v>
+        <v>14878.992</v>
       </c>
       <c r="J13" s="1">
-        <v>135198.758</v>
+        <v>134808.2454</v>
       </c>
       <c r="K13" s="1">
-        <v>98586.7473</v>
+        <v>98984.2537</v>
       </c>
       <c r="L13" s="1">
-        <v>9.114100000000001</v>
+        <v>9.1326</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-70.0153</v>
+        <v>-71.0305</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0999</v>
@@ -2086,34 +2086,34 @@
         <v>11.0976</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E14" s="1">
-        <v>10823.2917</v>
+        <v>10845.0068</v>
       </c>
       <c r="F14" s="1">
-        <v>-10823.2917</v>
+        <v>-10845.0068</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120112.5622</v>
+        <v>120112.7881</v>
       </c>
       <c r="I14" s="1">
-        <v>25198.758</v>
+        <v>24807.9616</v>
       </c>
       <c r="J14" s="1">
-        <v>145311.3202</v>
+        <v>144920.7496</v>
       </c>
       <c r="K14" s="1">
-        <v>98656.7626</v>
+        <v>99055.28419999999</v>
       </c>
       <c r="L14" s="1">
-        <v>9.1152</v>
+        <v>9.133699999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120112.5622</v>
+        <v>120112.7881</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0008</v>
@@ -2224,16 +2224,16 @@
         <v>7.7888</v>
       </c>
       <c r="C2" s="1">
-        <v>7.7888</v>
+        <v>7.7732</v>
       </c>
       <c r="D2" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1283.8948</v>
+        <v>1281.3285</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E3" s="1">
-        <v>1283.8948</v>
+        <v>1281.3285</v>
       </c>
       <c r="F3" s="1">
-        <v>1148.118</v>
+        <v>1155.5615</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10584.6857</v>
+        <v>10542.3863</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10584.6857</v>
+        <v>10542.3863</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9465.3143</v>
+        <v>-9545.7472</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0585</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>8.9413</v>
       </c>
       <c r="C4" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2432.0128</v>
+        <v>2436.89</v>
       </c>
       <c r="F4" s="1">
-        <v>940.008</v>
+        <v>941.895</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21745.3561</v>
+        <v>21745.3444</v>
       </c>
       <c r="I4" s="1">
-        <v>534.6857</v>
+        <v>454.2528</v>
       </c>
       <c r="J4" s="1">
-        <v>22280.0418</v>
+        <v>22199.5972</v>
       </c>
       <c r="K4" s="1">
-        <v>19465.3143</v>
+        <v>19545.7472</v>
       </c>
       <c r="L4" s="1">
-        <v>8.0038</v>
+        <v>8.020799999999999</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8404.893899999999</v>
+        <v>-8438.6255</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0824</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>8.9801</v>
       </c>
       <c r="C5" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D5" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>3372.0208</v>
+        <v>3378.785</v>
       </c>
       <c r="F5" s="1">
-        <v>1115.7912</v>
+        <v>1118.0407</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30281.0844</v>
+        <v>30281.009</v>
       </c>
       <c r="I5" s="1">
-        <v>2129.7918</v>
+        <v>2015.6274</v>
       </c>
       <c r="J5" s="1">
-        <v>32410.8762</v>
+        <v>32296.6363</v>
       </c>
       <c r="K5" s="1">
-        <v>27870.2082</v>
+        <v>27984.3726</v>
       </c>
       <c r="L5" s="1">
-        <v>8.2651</v>
+        <v>8.282400000000001</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10019.9168</v>
+        <v>-10060.2417</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0041</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>8.6477</v>
       </c>
       <c r="C6" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D6" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>4487.8121</v>
+        <v>4496.8257</v>
       </c>
       <c r="F6" s="1">
-        <v>1352.1808</v>
+        <v>1354.8737</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38809.2525</v>
+        <v>38809.4042</v>
       </c>
       <c r="I6" s="1">
-        <v>2109.875</v>
+        <v>1955.3856</v>
       </c>
       <c r="J6" s="1">
-        <v>40919.1275</v>
+        <v>40764.7898</v>
       </c>
       <c r="K6" s="1">
-        <v>37890.125</v>
+        <v>38044.6144</v>
       </c>
       <c r="L6" s="1">
-        <v>8.4429</v>
+        <v>8.4603</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1517.4094</v>
+        <v>1520.4532</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10175.8444</v>
+        <v>-10219.5275</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0352</v>
+        <v>-0.0362</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>5839.9929</v>
+        <v>5851.6994</v>
       </c>
       <c r="F7" s="1">
-        <v>509.2237</v>
+        <v>510.2159</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>55882.3077</v>
+        <v>55882.5587</v>
       </c>
       <c r="I7" s="1">
-        <v>1934.0306</v>
+        <v>1735.8582</v>
       </c>
       <c r="J7" s="1">
-        <v>57816.3383</v>
+        <v>57618.4168</v>
       </c>
       <c r="K7" s="1">
-        <v>49583.3788</v>
+        <v>49784.5951</v>
       </c>
       <c r="L7" s="1">
-        <v>8.4903</v>
+        <v>8.5077</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-4872.7111</v>
+        <v>-4892.0014</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1355</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E8" s="1">
-        <v>6349.2166</v>
+        <v>6361.9153</v>
       </c>
       <c r="F8" s="1">
-        <v>1186.6599</v>
+        <v>1189.0962</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59869.3031</v>
+        <v>59868.804</v>
       </c>
       <c r="I8" s="1">
-        <v>7061.3195</v>
+        <v>6843.8568</v>
       </c>
       <c r="J8" s="1">
-        <v>66930.6226</v>
+        <v>66712.6608</v>
       </c>
       <c r="K8" s="1">
-        <v>54456.0899</v>
+        <v>54676.5965</v>
       </c>
       <c r="L8" s="1">
-        <v>8.5768</v>
+        <v>8.5944</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11189.4908</v>
+        <v>-11234.9377</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0131</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D9" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E9" s="1">
-        <v>7535.8765</v>
+        <v>7551.0115</v>
       </c>
       <c r="F9" s="1">
-        <v>941.3138</v>
+        <v>943.0716</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>72373.8043</v>
+        <v>72374.93520000001</v>
       </c>
       <c r="I9" s="1">
-        <v>5871.8287</v>
+        <v>5608.919</v>
       </c>
       <c r="J9" s="1">
-        <v>78245.633</v>
+        <v>77983.8542</v>
       </c>
       <c r="K9" s="1">
-        <v>65645.58070000001</v>
+        <v>65911.53419999999</v>
       </c>
       <c r="L9" s="1">
-        <v>8.7111</v>
+        <v>8.7288</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9040.377699999999</v>
+        <v>-9075.4609</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0171</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.3595</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E10" s="1">
-        <v>8477.1903</v>
+        <v>8494.0831</v>
       </c>
       <c r="F10" s="1">
-        <v>386.2836</v>
+        <v>387.137</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>87819.4528</v>
+        <v>87818.6265</v>
       </c>
       <c r="I10" s="1">
-        <v>6831.4511</v>
+        <v>6533.4581</v>
       </c>
       <c r="J10" s="1">
-        <v>94650.9039</v>
+        <v>94352.0846</v>
       </c>
       <c r="K10" s="1">
-        <v>74685.9583</v>
+        <v>74986.9951</v>
       </c>
       <c r="L10" s="1">
-        <v>8.8102</v>
+        <v>8.828099999999999</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-4001.7055</v>
+        <v>-4018.598</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0726</v>
+        <v>0.07240000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.0875</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E11" s="1">
-        <v>8863.473900000001</v>
+        <v>8881.2201</v>
       </c>
       <c r="F11" s="1">
-        <v>1275.8335</v>
+        <v>1278.4319</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89410.2934</v>
+        <v>89409.90700000001</v>
       </c>
       <c r="I11" s="1">
-        <v>12829.7456</v>
+        <v>12514.8602</v>
       </c>
       <c r="J11" s="1">
-        <v>102240.039</v>
+        <v>101924.7672</v>
       </c>
       <c r="K11" s="1">
-        <v>78687.66379999999</v>
+        <v>79005.5931</v>
       </c>
       <c r="L11" s="1">
-        <v>8.877700000000001</v>
+        <v>8.895799999999999</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12869.9707</v>
+        <v>-12922.0057</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.023</v>
+        <v>-0.0233</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>10.1692</v>
       </c>
       <c r="C12" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E12" s="1">
-        <v>10139.3075</v>
+        <v>10159.652</v>
       </c>
       <c r="F12" s="1">
-        <v>952.1909000000001</v>
+        <v>954.0318</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103108.6455</v>
+        <v>103109.2917</v>
       </c>
       <c r="I12" s="1">
-        <v>9959.7749</v>
+        <v>9592.854499999999</v>
       </c>
       <c r="J12" s="1">
-        <v>113068.4204</v>
+        <v>112702.1461</v>
       </c>
       <c r="K12" s="1">
-        <v>91557.6345</v>
+        <v>91927.59880000001</v>
       </c>
       <c r="L12" s="1">
-        <v>9.029999999999999</v>
+        <v>9.048299999999999</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2393.138</v>
+        <v>2397.9294</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7289.8819</v>
+        <v>-7323.2734</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0074</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>11.0872</v>
       </c>
       <c r="C13" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D13" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E13" s="1">
-        <v>11091.4984</v>
+        <v>11113.6838</v>
       </c>
       <c r="F13" s="1">
-        <v>34.4508</v>
+        <v>34.5877</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>122973.6609</v>
+        <v>122972.9111</v>
       </c>
       <c r="I13" s="1">
-        <v>12669.893</v>
+        <v>12269.5811</v>
       </c>
       <c r="J13" s="1">
-        <v>135643.5539</v>
+        <v>135242.4922</v>
       </c>
       <c r="K13" s="1">
-        <v>101240.6544</v>
+        <v>101648.8016</v>
       </c>
       <c r="L13" s="1">
-        <v>9.127800000000001</v>
+        <v>9.1463</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-381.9628</v>
+        <v>-384.2483</v>
       </c>
       <c r="Q13" s="3">
         <v>0.1022</v>
@@ -2854,34 +2854,34 @@
         <v>11.0976</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E14" s="1">
-        <v>11125.9492</v>
+        <v>11148.2715</v>
       </c>
       <c r="F14" s="1">
-        <v>-11125.9492</v>
+        <v>-11148.2715</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123471.3336</v>
+        <v>123471.5658</v>
       </c>
       <c r="I14" s="1">
-        <v>22287.9302</v>
+        <v>21885.3328</v>
       </c>
       <c r="J14" s="1">
-        <v>145759.2638</v>
+        <v>145356.8985</v>
       </c>
       <c r="K14" s="1">
-        <v>101622.6172</v>
+        <v>102033.0499</v>
       </c>
       <c r="L14" s="1">
-        <v>9.133800000000001</v>
+        <v>9.1524</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123471.3336</v>
+        <v>123471.5658</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0008</v>
@@ -2992,16 +2992,16 @@
         <v>7.7888</v>
       </c>
       <c r="C2" s="1">
-        <v>7.7888</v>
+        <v>7.7732</v>
       </c>
       <c r="D2" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1283.8948</v>
+        <v>1281.3285</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E3" s="1">
-        <v>1283.8948</v>
+        <v>1281.3285</v>
       </c>
       <c r="F3" s="1">
-        <v>1154.1829</v>
+        <v>1161.6386</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10584.6857</v>
+        <v>10542.3863</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10584.6857</v>
+        <v>10542.3863</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9515.3143</v>
+        <v>-9595.947700000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0585</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>8.9413</v>
       </c>
       <c r="C4" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2438.0777</v>
+        <v>2442.9671</v>
       </c>
       <c r="F4" s="1">
-        <v>950.8031</v>
+        <v>952.7117</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21799.5839</v>
+        <v>21799.5722</v>
       </c>
       <c r="I4" s="1">
-        <v>484.6857</v>
+        <v>404.0523</v>
       </c>
       <c r="J4" s="1">
-        <v>22284.2697</v>
+        <v>22203.6245</v>
       </c>
       <c r="K4" s="1">
-        <v>19515.3143</v>
+        <v>19595.9477</v>
       </c>
       <c r="L4" s="1">
-        <v>8.0044</v>
+        <v>8.0214</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8501.4161</v>
+        <v>-8535.534900000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.08260000000000001</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>8.9801</v>
       </c>
       <c r="C5" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D5" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>3388.8808</v>
+        <v>3395.6788</v>
       </c>
       <c r="F5" s="1">
-        <v>1132.6735</v>
+        <v>1134.9569</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30432.4886</v>
+        <v>30432.4128</v>
       </c>
       <c r="I5" s="1">
-        <v>1983.2697</v>
+        <v>1868.5174</v>
       </c>
       <c r="J5" s="1">
-        <v>32415.7582</v>
+        <v>32300.9301</v>
       </c>
       <c r="K5" s="1">
-        <v>28016.7303</v>
+        <v>28131.4826</v>
       </c>
       <c r="L5" s="1">
-        <v>8.267300000000001</v>
+        <v>8.2845</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10171.5214</v>
+        <v>-10212.4557</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0041</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>8.6477</v>
       </c>
       <c r="C6" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D6" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>4521.5543</v>
+        <v>4530.6357</v>
       </c>
       <c r="F6" s="1">
-        <v>1365.8832</v>
+        <v>1345.1889</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39101.0453</v>
+        <v>39101.1981</v>
       </c>
       <c r="I6" s="1">
-        <v>1811.7482</v>
+        <v>1656.0617</v>
       </c>
       <c r="J6" s="1">
-        <v>40912.7936</v>
+        <v>40757.2598</v>
       </c>
       <c r="K6" s="1">
-        <v>38188.2518</v>
+        <v>38343.9383</v>
       </c>
       <c r="L6" s="1">
-        <v>8.4458</v>
+        <v>8.4633</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1524.9964</v>
+        <v>1528.0554</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10286.7519</v>
+        <v>-10128.0062</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0354</v>
+        <v>-0.0365</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>5887.4375</v>
+        <v>5875.8246</v>
       </c>
       <c r="F7" s="1">
-        <v>541.7393</v>
+        <v>566.2109</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>56336.301</v>
+        <v>56112.9494</v>
       </c>
       <c r="I7" s="1">
-        <v>1524.9964</v>
+        <v>1528.0554</v>
       </c>
       <c r="J7" s="1">
-        <v>57861.2974</v>
+        <v>57641.0049</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>8.492699999999999</v>
+        <v>8.509399999999999</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-5183.8496</v>
+        <v>-5428.8871</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1365</v>
+        <v>0.1356</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E8" s="1">
-        <v>6429.1769</v>
+        <v>6442.0355</v>
       </c>
       <c r="F8" s="1">
-        <v>1220.87</v>
+        <v>1223.3757</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>60623.2804</v>
+        <v>60622.7751</v>
       </c>
       <c r="I8" s="1">
-        <v>6341.1468</v>
+        <v>6099.1684</v>
       </c>
       <c r="J8" s="1">
-        <v>66964.42720000001</v>
+        <v>66721.9434</v>
       </c>
       <c r="K8" s="1">
-        <v>55183.8496</v>
+        <v>55428.8871</v>
       </c>
       <c r="L8" s="1">
-        <v>8.583299999999999</v>
+        <v>8.6043</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11512.0717</v>
+        <v>-11558.8207</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0132</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D9" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E9" s="1">
-        <v>7650.0469</v>
+        <v>7665.4112</v>
       </c>
       <c r="F9" s="1">
-        <v>977.3551</v>
+        <v>979.1829</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73470.2853</v>
+        <v>73471.4333</v>
       </c>
       <c r="I9" s="1">
-        <v>4829.0751</v>
+        <v>4540.3477</v>
       </c>
       <c r="J9" s="1">
-        <v>78299.36040000001</v>
+        <v>78011.781</v>
       </c>
       <c r="K9" s="1">
-        <v>66695.9213</v>
+        <v>66987.7077</v>
       </c>
       <c r="L9" s="1">
-        <v>8.718400000000001</v>
+        <v>8.739000000000001</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9386.518099999999</v>
+        <v>-9422.9709</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0173</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.3595</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E10" s="1">
-        <v>8627.402</v>
+        <v>8644.5941</v>
       </c>
       <c r="F10" s="1">
-        <v>416.0145</v>
+        <v>416.9288</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>89375.5705</v>
+        <v>89374.72960000001</v>
       </c>
       <c r="I10" s="1">
-        <v>5442.557</v>
+        <v>5117.3768</v>
       </c>
       <c r="J10" s="1">
-        <v>94818.12760000001</v>
+        <v>94492.1064</v>
       </c>
       <c r="K10" s="1">
-        <v>76082.4393</v>
+        <v>76410.6786</v>
       </c>
       <c r="L10" s="1">
-        <v>8.8187</v>
+        <v>8.8391</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-4309.7021</v>
+        <v>-4327.8456</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0738</v>
+        <v>0.0736</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.0875</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E11" s="1">
-        <v>9043.4164</v>
+        <v>9061.5229</v>
       </c>
       <c r="F11" s="1">
-        <v>1328.0458</v>
+        <v>1330.7497</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>91225.46339999999</v>
+        <v>91225.0692</v>
       </c>
       <c r="I11" s="1">
-        <v>11132.8549</v>
+        <v>10789.5312</v>
       </c>
       <c r="J11" s="1">
-        <v>102358.3183</v>
+        <v>102014.6004</v>
       </c>
       <c r="K11" s="1">
-        <v>80392.1415</v>
+        <v>80738.5243</v>
       </c>
       <c r="L11" s="1">
-        <v>8.8896</v>
+        <v>8.91</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-13396.662</v>
+        <v>-13450.8185</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0235</v>
+        <v>-0.0237</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>10.1692</v>
       </c>
       <c r="C12" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E12" s="1">
-        <v>10371.4622</v>
+        <v>10392.2725</v>
       </c>
       <c r="F12" s="1">
-        <v>1002.9179</v>
+        <v>1004.8588</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>105469.4739</v>
+        <v>105470.1349</v>
       </c>
       <c r="I12" s="1">
-        <v>7736.1929</v>
+        <v>7338.7127</v>
       </c>
       <c r="J12" s="1">
-        <v>113205.6668</v>
+        <v>112808.8476</v>
       </c>
       <c r="K12" s="1">
-        <v>93788.80349999999</v>
+        <v>94189.34269999999</v>
       </c>
       <c r="L12" s="1">
-        <v>9.042999999999999</v>
+        <v>9.0634</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2441.7224</v>
+        <v>2446.6112</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7757.1503</v>
+        <v>-7792.4984</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0075</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>11.0872</v>
       </c>
       <c r="C13" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D13" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E13" s="1">
-        <v>11374.3802</v>
+        <v>11397.1314</v>
       </c>
       <c r="F13" s="1">
-        <v>64.489</v>
+        <v>64.6879</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126110.0276</v>
+        <v>126109.2587</v>
       </c>
       <c r="I13" s="1">
-        <v>9979.0425</v>
+        <v>9546.2143</v>
       </c>
       <c r="J13" s="1">
-        <v>136089.0702</v>
+        <v>135655.473</v>
       </c>
       <c r="K13" s="1">
-        <v>103987.6763</v>
+        <v>104428.4523</v>
       </c>
       <c r="L13" s="1">
-        <v>9.142300000000001</v>
+        <v>9.162699999999999</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-715.0025000000001</v>
+        <v>-718.6436</v>
       </c>
       <c r="Q13" s="3">
         <v>0.1046</v>
@@ -3622,34 +3622,34 @@
         <v>11.0976</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E14" s="1">
-        <v>11438.8692</v>
+        <v>11461.8193</v>
       </c>
       <c r="F14" s="1">
-        <v>-11438.8692</v>
+        <v>-11461.8193</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126943.9944</v>
+        <v>126944.2331</v>
       </c>
       <c r="I14" s="1">
-        <v>19264.0401</v>
+        <v>18827.5708</v>
       </c>
       <c r="J14" s="1">
-        <v>146208.0344</v>
+        <v>145771.8038</v>
       </c>
       <c r="K14" s="1">
-        <v>104702.6787</v>
+        <v>105147.0959</v>
       </c>
       <c r="L14" s="1">
-        <v>9.1532</v>
+        <v>9.1737</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126943.9944</v>
+        <v>126944.2331</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0008</v>
@@ -3760,16 +3760,16 @@
         <v>7.7888</v>
       </c>
       <c r="C2" s="1">
-        <v>7.7888</v>
+        <v>7.7732</v>
       </c>
       <c r="D2" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1283.8948</v>
+        <v>1281.3285</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E3" s="1">
-        <v>1283.8948</v>
+        <v>1281.3285</v>
       </c>
       <c r="F3" s="1">
-        <v>1160.2477</v>
+        <v>1167.7156</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10584.6857</v>
+        <v>10542.3863</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10584.6857</v>
+        <v>10542.3863</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9565.3143</v>
+        <v>-9646.148300000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0585</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>8.9413</v>
       </c>
       <c r="C4" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2444.1425</v>
+        <v>2449.0441</v>
       </c>
       <c r="F4" s="1">
-        <v>961.6541</v>
+        <v>963.5845</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21853.8118</v>
+        <v>21853.8</v>
       </c>
       <c r="I4" s="1">
-        <v>434.6857</v>
+        <v>353.8517</v>
       </c>
       <c r="J4" s="1">
-        <v>22288.4975</v>
+        <v>22207.6517</v>
       </c>
       <c r="K4" s="1">
-        <v>19565.3143</v>
+        <v>19646.1483</v>
       </c>
       <c r="L4" s="1">
-        <v>8.005000000000001</v>
+        <v>8.022</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8598.438200000001</v>
+        <v>-8632.946400000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0828</v>
+        <v>0.08110000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>8.9801</v>
       </c>
       <c r="C5" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D5" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>3405.7967</v>
+        <v>3412.6286</v>
       </c>
       <c r="F5" s="1">
-        <v>1149.7243</v>
+        <v>1152.0419</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30584.3949</v>
+        <v>30584.3187</v>
       </c>
       <c r="I5" s="1">
-        <v>1836.2475</v>
+        <v>1720.9054</v>
       </c>
       <c r="J5" s="1">
-        <v>32420.6424</v>
+        <v>32305.2241</v>
       </c>
       <c r="K5" s="1">
-        <v>28163.7525</v>
+        <v>28279.0946</v>
       </c>
       <c r="L5" s="1">
-        <v>8.269399999999999</v>
+        <v>8.2866</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10324.6388</v>
+        <v>-10366.1885</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0041</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>8.6477</v>
       </c>
       <c r="C6" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D6" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>4555.521</v>
+        <v>4564.6705</v>
       </c>
       <c r="F6" s="1">
-        <v>1331.1758</v>
+        <v>1310.4116</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39394.7786</v>
+        <v>39394.9325</v>
       </c>
       <c r="I6" s="1">
-        <v>1511.6086</v>
+        <v>1354.7168</v>
       </c>
       <c r="J6" s="1">
-        <v>40906.3872</v>
+        <v>40749.6494</v>
       </c>
       <c r="K6" s="1">
-        <v>38488.3914</v>
+        <v>38645.2832</v>
       </c>
       <c r="L6" s="1">
-        <v>8.448700000000001</v>
+        <v>8.466200000000001</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1532.6085</v>
+        <v>1535.6829</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9979.000099999999</v>
+        <v>-9819.034</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0357</v>
+        <v>-0.0368</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>5886.6967</v>
+        <v>5875.0822</v>
       </c>
       <c r="F7" s="1">
-        <v>623.5092</v>
+        <v>648.1444</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>56329.2122</v>
+        <v>56105.8597</v>
       </c>
       <c r="I7" s="1">
-        <v>1532.6085</v>
+        <v>1535.6829</v>
       </c>
       <c r="J7" s="1">
-        <v>57861.8207</v>
+        <v>57641.5425</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>8.4937</v>
+        <v>8.5105</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-5966.2971</v>
+        <v>-6214.4735</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1366</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E8" s="1">
-        <v>6510.2059</v>
+        <v>6523.2266</v>
       </c>
       <c r="F8" s="1">
-        <v>1255.9236</v>
+        <v>1258.5004</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61387.3356</v>
+        <v>61386.8238</v>
       </c>
       <c r="I8" s="1">
-        <v>5566.3115</v>
+        <v>5321.2093</v>
       </c>
       <c r="J8" s="1">
-        <v>66953.647</v>
+        <v>66708.03320000001</v>
       </c>
       <c r="K8" s="1">
-        <v>55966.2971</v>
+        <v>56214.4735</v>
       </c>
       <c r="L8" s="1">
-        <v>8.5967</v>
+        <v>8.617599999999999</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11842.6064</v>
+        <v>-11890.6894</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0134</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D9" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E9" s="1">
-        <v>7766.1295</v>
+        <v>7781.727</v>
       </c>
       <c r="F9" s="1">
-        <v>1014.5107</v>
+        <v>1016.4108</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>74585.1315</v>
+        <v>74586.29700000001</v>
       </c>
       <c r="I9" s="1">
-        <v>3723.7051</v>
+        <v>3430.5199</v>
       </c>
       <c r="J9" s="1">
-        <v>78308.8366</v>
+        <v>78016.81690000001</v>
       </c>
       <c r="K9" s="1">
-        <v>67808.9034</v>
+        <v>68105.163</v>
       </c>
       <c r="L9" s="1">
-        <v>8.731400000000001</v>
+        <v>8.751899999999999</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9743.361000000001</v>
+        <v>-9781.225899999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0176</v>
+        <v>0.0171</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.3595</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E10" s="1">
-        <v>8780.640299999999</v>
+        <v>8798.1378</v>
       </c>
       <c r="F10" s="1">
-        <v>446.9592</v>
+        <v>447.9369</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>90963.0428</v>
+        <v>90962.18700000001</v>
       </c>
       <c r="I10" s="1">
-        <v>3980.3441</v>
+        <v>3649.294</v>
       </c>
       <c r="J10" s="1">
-        <v>94943.387</v>
+        <v>94611.4809</v>
       </c>
       <c r="K10" s="1">
-        <v>77552.2644</v>
+        <v>77886.38890000001</v>
       </c>
       <c r="L10" s="1">
-        <v>8.8322</v>
+        <v>8.852600000000001</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-4630.2741</v>
+        <v>-4649.7194</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0751</v>
+        <v>0.07489999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.0875</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E11" s="1">
-        <v>9227.5995</v>
+        <v>9246.074699999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1382.2857</v>
+        <v>1385.0992</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>93083.4099</v>
+        <v>93083.0077</v>
       </c>
       <c r="I11" s="1">
-        <v>9350.07</v>
+        <v>8999.5746</v>
       </c>
       <c r="J11" s="1">
-        <v>102433.4799</v>
+        <v>102082.5823</v>
       </c>
       <c r="K11" s="1">
-        <v>82182.5385</v>
+        <v>82536.10830000001</v>
       </c>
       <c r="L11" s="1">
-        <v>8.9062</v>
+        <v>8.926600000000001</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-13943.8068</v>
+        <v>-14000.167</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0239</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>10.1692</v>
       </c>
       <c r="C12" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E12" s="1">
-        <v>10609.8852</v>
+        <v>10631.1739</v>
       </c>
       <c r="F12" s="1">
-        <v>1055.9907</v>
+        <v>1058.0363</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>107894.0443</v>
+        <v>107894.7205</v>
       </c>
       <c r="I12" s="1">
-        <v>5406.2632</v>
+        <v>4999.4076</v>
       </c>
       <c r="J12" s="1">
-        <v>113300.3075</v>
+        <v>112894.1281</v>
       </c>
       <c r="K12" s="1">
-        <v>96126.3453</v>
+        <v>96536.27529999999</v>
       </c>
       <c r="L12" s="1">
-        <v>9.0601</v>
+        <v>9.080500000000001</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2491.4519</v>
+        <v>2496.4402</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8247.1288</v>
+        <v>-8284.526400000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0077</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>11.0872</v>
       </c>
       <c r="C13" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D13" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E13" s="1">
-        <v>11665.8759</v>
+        <v>11689.2102</v>
       </c>
       <c r="F13" s="1">
-        <v>96.5271</v>
+        <v>96.792</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>129341.899</v>
+        <v>129341.1104</v>
       </c>
       <c r="I13" s="1">
-        <v>7159.1345</v>
+        <v>6714.8812</v>
       </c>
       <c r="J13" s="1">
-        <v>136501.0334</v>
+        <v>136055.9916</v>
       </c>
       <c r="K13" s="1">
-        <v>106864.9259</v>
+        <v>107317.2418</v>
       </c>
       <c r="L13" s="1">
-        <v>9.160500000000001</v>
+        <v>9.180899999999999</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-1070.2153</v>
+        <v>-1075.3015</v>
       </c>
       <c r="Q13" s="3">
         <v>0.1071</v>
@@ -4390,34 +4390,34 @@
         <v>11.0976</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E14" s="1">
-        <v>11762.403</v>
+        <v>11786.0022</v>
       </c>
       <c r="F14" s="1">
-        <v>-11762.403</v>
+        <v>-11786.0022</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>130534.4433</v>
+        <v>130534.6887</v>
       </c>
       <c r="I14" s="1">
-        <v>16088.9191</v>
+        <v>15639.5797</v>
       </c>
       <c r="J14" s="1">
-        <v>146623.3624</v>
+        <v>146174.2684</v>
       </c>
       <c r="K14" s="1">
-        <v>107935.1412</v>
+        <v>108392.5433</v>
       </c>
       <c r="L14" s="1">
-        <v>9.176299999999999</v>
+        <v>9.1967</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130534.4433</v>
+        <v>130534.6887</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0008</v>
@@ -4454,7 +4454,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>9.362299999999999</v>
+        <v>9.381</v>
       </c>
       <c r="D3" s="1">
-        <v>9.1152</v>
+        <v>9.133699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>9.133800000000001</v>
+        <v>9.1524</v>
       </c>
       <c r="F3" s="1">
-        <v>9.1532</v>
+        <v>9.1737</v>
       </c>
       <c r="G3" s="1">
-        <v>9.176299999999999</v>
+        <v>9.1967</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.3725</v>
       </c>
       <c r="C4" s="3">
-        <v>0.4257</v>
+        <v>0.4133</v>
       </c>
       <c r="D4" s="3">
-        <v>0.4045</v>
+        <v>0.3945</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4091</v>
+        <v>0.3989</v>
       </c>
       <c r="F4" s="3">
-        <v>0.4136</v>
+        <v>0.4029</v>
       </c>
       <c r="G4" s="3">
-        <v>0.4173</v>
+        <v>0.4065</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1655</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1896</v>
+        <v>0.1889</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1785</v>
+        <v>0.1781</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1806</v>
+        <v>0.1802</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1826</v>
+        <v>0.182</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1842</v>
+        <v>0.1837</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>2.1282</v>
       </c>
       <c r="C6" s="4">
-        <v>2.1379</v>
+        <v>2.0805</v>
       </c>
       <c r="D6" s="4">
-        <v>2.1523</v>
+        <v>2.1014</v>
       </c>
       <c r="E6" s="4">
-        <v>2.1527</v>
+        <v>2.1014</v>
       </c>
       <c r="F6" s="4">
-        <v>2.1533</v>
+        <v>2.1018</v>
       </c>
       <c r="G6" s="4">
-        <v>2.1548</v>
+        <v>2.1023</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.4523</v>
+        <v>0.4419</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4707</v>
+        <v>0.4611</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4701</v>
+        <v>0.4605</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4694</v>
+        <v>0.4593</v>
       </c>
       <c r="G7" s="3">
-        <v>0.468</v>
+        <v>0.4578</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4351.9536</v>
+        <v>4343.2007</v>
       </c>
       <c r="D8" s="1">
-        <v>3855.5206</v>
+        <v>3863.2457</v>
       </c>
       <c r="E8" s="1">
-        <v>3910.5473</v>
+        <v>3918.3827</v>
       </c>
       <c r="F8" s="1">
-        <v>3966.7188</v>
+        <v>3974.6666</v>
       </c>
       <c r="G8" s="1">
-        <v>4024.0604</v>
+        <v>4032.123</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P2_KFSDIV.xlsx
+++ b/output/1Y_P2_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4924.5187</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1799</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.4714</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.4329</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.3946</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.3568</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
